--- a/visual/sample-data/flight-route/flight_route.xlsx
+++ b/visual/sample-data/flight-route/flight_route.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t xml:space="preserve">Origin Name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Destination Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcel (ton)</t>
   </si>
   <si>
     <t xml:space="preserve">Kuala Lumpur</t>
@@ -228,20 +231,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C27" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,10 +266,13 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3.139</v>
@@ -275,7 +281,7 @@
         <v>101.6869</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>-0.9471</v>
@@ -283,10 +289,13 @@
       <c r="F2" s="0" t="n">
         <v>100.4172</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>3.139</v>
@@ -295,7 +304,7 @@
         <v>101.6869</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>-36.8509</v>
@@ -303,10 +312,13 @@
       <c r="F3" s="0" t="n">
         <v>174.7645</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3.139</v>
@@ -315,7 +327,7 @@
         <v>101.6869</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>21.4858</v>
@@ -323,10 +335,13 @@
       <c r="F4" s="0" t="n">
         <v>39.1925</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3.139</v>
@@ -335,7 +350,7 @@
         <v>101.6869</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>43.0618</v>
@@ -343,10 +358,13 @@
       <c r="F5" s="0" t="n">
         <v>141.3545</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3.139</v>
@@ -355,7 +373,7 @@
         <v>101.6869</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.345</v>
@@ -363,10 +381,13 @@
       <c r="F6" s="0" t="n">
         <v>103.9832</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3.139</v>
@@ -375,7 +396,7 @@
         <v>101.6869</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>40.7128</v>
@@ -383,10 +404,13 @@
       <c r="F7" s="0" t="n">
         <v>-74.006</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3.139</v>
@@ -395,18 +419,21 @@
         <v>101.6869</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>51.5074</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>-0.1278</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3.139</v>
@@ -415,7 +442,7 @@
         <v>101.6869</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>48.8567</v>
@@ -423,10 +450,13 @@
       <c r="F9" s="0" t="n">
         <v>2.351</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>3.139</v>
@@ -435,7 +465,7 @@
         <v>101.6869</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>50.4422</v>
@@ -443,10 +473,13 @@
       <c r="F10" s="0" t="n">
         <v>30.5367</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>3.139</v>
@@ -455,7 +488,7 @@
         <v>101.6869</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>59.9138</v>
@@ -463,10 +496,13 @@
       <c r="F11" s="0" t="n">
         <v>10.7387</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>3.139</v>
@@ -475,7 +511,7 @@
         <v>101.6869</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>37.9792</v>
@@ -483,10 +519,13 @@
       <c r="F12" s="0" t="n">
         <v>23.7166</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>3.139</v>
@@ -495,7 +534,7 @@
         <v>101.6869</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>30.5728</v>
@@ -503,10 +542,13 @@
       <c r="F13" s="0" t="n">
         <v>104.0668</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>3.139</v>
@@ -515,7 +557,7 @@
         <v>101.6869</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>-27.4705</v>
@@ -523,10 +565,13 @@
       <c r="F14" s="0" t="n">
         <v>153.026</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>3.139</v>
@@ -535,7 +580,7 @@
         <v>101.6869</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>25.2048</v>
@@ -543,10 +588,13 @@
       <c r="F15" s="0" t="n">
         <v>55.2708</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>3.139</v>
@@ -555,7 +603,7 @@
         <v>101.6869</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>41.0082</v>
@@ -563,10 +611,13 @@
       <c r="F16" s="0" t="n">
         <v>28.9784</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>51.5074</v>
@@ -575,18 +626,21 @@
         <v>-0.1278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>3.139</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>101.6869</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>51.5074</v>
@@ -595,7 +649,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-0.9471</v>
@@ -603,10 +657,13 @@
       <c r="F18" s="0" t="n">
         <v>100.4172</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>51.5074</v>
@@ -615,7 +672,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>-36.8509</v>
@@ -623,19 +680,22 @@
       <c r="F19" s="0" t="n">
         <v>174.7645</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>51.5074</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-0.1278</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>51.5074</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>-0.1278</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>40.7128</v>
@@ -643,10 +703,13 @@
       <c r="F20" s="1" t="n">
         <v>-74.006</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>51.5074</v>
@@ -655,7 +718,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>54.6896</v>
@@ -663,10 +726,13 @@
       <c r="F21" s="0" t="n">
         <v>25.2799</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>51.5074</v>
@@ -675,7 +741,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>38.7072</v>
@@ -683,10 +749,13 @@
       <c r="F22" s="0" t="n">
         <v>-9.1355</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>51.5074</v>
@@ -695,7 +764,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>25.033</v>
@@ -703,10 +772,13 @@
       <c r="F23" s="1" t="n">
         <v>121.5654</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>51.5074</v>
@@ -715,7 +787,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>-31.9523</v>
@@ -723,10 +795,13 @@
       <c r="F24" s="0" t="n">
         <v>115.8613</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>51.5074</v>
@@ -735,7 +810,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>1.345</v>
@@ -743,10 +818,13 @@
       <c r="F25" s="1" t="n">
         <v>103.9832</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>51.5074</v>
@@ -755,7 +833,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>-33.4489</v>
@@ -763,10 +841,13 @@
       <c r="F26" s="0" t="n">
         <v>70.6693</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>51.5074</v>
@@ -775,7 +856,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>-22.9068</v>
@@ -783,10 +864,13 @@
       <c r="F27" s="0" t="n">
         <v>-43.1729</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>51.5074</v>
@@ -795,7 +879,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>51.0447</v>
@@ -803,10 +887,13 @@
       <c r="F28" s="0" t="n">
         <v>-114.0719</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>51.5074</v>
@@ -815,7 +902,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>64.1466</v>
@@ -823,10 +910,13 @@
       <c r="F29" s="0" t="n">
         <v>21.9426</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>51.5074</v>
@@ -835,7 +925,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>30.5728</v>
@@ -843,10 +933,13 @@
       <c r="F30" s="0" t="n">
         <v>104.0668</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>51.5074</v>
@@ -855,7 +948,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>25.2048</v>
@@ -863,10 +956,13 @@
       <c r="F31" s="0" t="n">
         <v>55.2708</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>56.0153</v>
@@ -875,18 +971,21 @@
         <v>92.8932</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>51.5074</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>-0.1278</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>56.0153</v>
@@ -895,7 +994,7 @@
         <v>92.8932</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>40.7128</v>
@@ -903,10 +1002,13 @@
       <c r="F33" s="1" t="n">
         <v>-74.006</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>56.0153</v>
@@ -915,7 +1017,7 @@
         <v>92.8932</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>25.033</v>
@@ -923,10 +1025,13 @@
       <c r="F34" s="0" t="n">
         <v>121.5654</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>56.0153</v>
@@ -935,7 +1040,7 @@
         <v>92.8932</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>54.6896</v>
@@ -943,10 +1048,13 @@
       <c r="F35" s="1" t="n">
         <v>25.2799</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>56.0153</v>
@@ -955,7 +1063,7 @@
         <v>92.8932</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>13.7563</v>
@@ -963,10 +1071,13 @@
       <c r="F36" s="0" t="n">
         <v>100.5018</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>56.0153</v>
@@ -975,7 +1086,7 @@
         <v>92.8932</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>69.3558</v>
@@ -983,10 +1094,13 @@
       <c r="F37" s="0" t="n">
         <v>88.1893</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>56.0153</v>
@@ -995,7 +1109,7 @@
         <v>92.8932</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>30.0444</v>
@@ -1003,10 +1117,13 @@
       <c r="F38" s="0" t="n">
         <v>31.2357</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>56.0153</v>
@@ -1015,7 +1132,7 @@
         <v>92.8932</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>43.1332</v>
@@ -1023,10 +1140,13 @@
       <c r="F39" s="0" t="n">
         <v>131.9113</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>56.0153</v>
@@ -1035,7 +1155,7 @@
         <v>92.8932</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>42.8746</v>
@@ -1043,10 +1163,13 @@
       <c r="F40" s="0" t="n">
         <v>74.5698</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>56.0153</v>
@@ -1055,7 +1178,7 @@
         <v>92.8932</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>64.1466</v>
@@ -1063,10 +1186,13 @@
       <c r="F41" s="0" t="n">
         <v>21.9426</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>56.0153</v>
@@ -1075,7 +1201,7 @@
         <v>92.8932</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>41.0082</v>
@@ -1083,10 +1209,13 @@
       <c r="F42" s="0" t="n">
         <v>28.9784</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>56.0153</v>
@@ -1095,7 +1224,7 @@
         <v>92.8932</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>59.9138</v>
@@ -1103,10 +1232,13 @@
       <c r="F43" s="0" t="n">
         <v>10.7387</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>56.0153</v>
@@ -1115,13 +1247,16 @@
         <v>92.8932</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>37.9792</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>23.7166</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/visual/sample-data/flight-route/flight_route.xlsx
+++ b/visual/sample-data/flight-route/flight_route.xlsx
@@ -233,11 +233,11 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C27" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
@@ -704,7 +704,7 @@
         <v>-74.006</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +727,7 @@
         <v>25.2799</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +865,7 @@
         <v>-43.1729</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,7 +888,7 @@
         <v>-114.0719</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1095,7 @@
         <v>88.1893</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,7 +1118,7 @@
         <v>31.2357</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1141,7 @@
         <v>131.9113</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1164,7 @@
         <v>74.5698</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,7 +1187,7 @@
         <v>21.9426</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1210,7 @@
         <v>28.9784</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1233,7 @@
         <v>10.7387</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,7 +1256,7 @@
         <v>23.7166</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/visual/sample-data/flight-route/flight_route.xlsx
+++ b/visual/sample-data/flight-route/flight_route.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Destination Longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">Parcel (ton)</t>
+    <t xml:space="preserve">Revenue (Million)</t>
   </si>
   <si>
     <t xml:space="preserve">Kuala Lumpur</t>
@@ -234,10 +234,10 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
@@ -405,7 +405,7 @@
         <v>-74.006</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +428,7 @@
         <v>-0.1278</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,7 +451,7 @@
         <v>2.351</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,7 +520,7 @@
         <v>23.7166</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +566,7 @@
         <v>153.026</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/visual/sample-data/flight-route/flight_route.xlsx
+++ b/visual/sample-data/flight-route/flight_route.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t xml:space="preserve">Origin Name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Revenue (Million)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
   </si>
   <si>
     <t xml:space="preserve">Kuala Lumpur</t>
@@ -231,13 +234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
@@ -269,10 +272,13 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3.139</v>
@@ -281,7 +287,7 @@
         <v>101.6869</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>-0.9471</v>
@@ -292,10 +298,13 @@
       <c r="G2" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>3.139</v>
@@ -304,7 +313,7 @@
         <v>101.6869</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>-36.8509</v>
@@ -315,10 +324,13 @@
       <c r="G3" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3.139</v>
@@ -327,7 +339,7 @@
         <v>101.6869</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>21.4858</v>
@@ -338,10 +350,13 @@
       <c r="G4" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3.139</v>
@@ -350,7 +365,7 @@
         <v>101.6869</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>43.0618</v>
@@ -361,10 +376,13 @@
       <c r="G5" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3.139</v>
@@ -373,7 +391,7 @@
         <v>101.6869</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.345</v>
@@ -384,10 +402,13 @@
       <c r="G6" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3.139</v>
@@ -396,7 +417,7 @@
         <v>101.6869</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>40.7128</v>
@@ -407,10 +428,13 @@
       <c r="G7" s="0" t="n">
         <v>3.5</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3.139</v>
@@ -419,7 +443,7 @@
         <v>101.6869</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>51.5074</v>
@@ -430,10 +454,13 @@
       <c r="G8" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3.139</v>
@@ -442,7 +469,7 @@
         <v>101.6869</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>48.8567</v>
@@ -453,10 +480,13 @@
       <c r="G9" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>3.139</v>
@@ -465,7 +495,7 @@
         <v>101.6869</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>50.4422</v>
@@ -476,10 +506,13 @@
       <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>3.139</v>
@@ -488,7 +521,7 @@
         <v>101.6869</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>59.9138</v>
@@ -499,10 +532,13 @@
       <c r="G11" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>3.139</v>
@@ -511,7 +547,7 @@
         <v>101.6869</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>37.9792</v>
@@ -522,10 +558,13 @@
       <c r="G12" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>3.139</v>
@@ -534,7 +573,7 @@
         <v>101.6869</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>30.5728</v>
@@ -545,10 +584,13 @@
       <c r="G13" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>3.139</v>
@@ -557,7 +599,7 @@
         <v>101.6869</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>-27.4705</v>
@@ -568,10 +610,13 @@
       <c r="G14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>3.139</v>
@@ -580,7 +625,7 @@
         <v>101.6869</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>25.2048</v>
@@ -591,10 +636,13 @@
       <c r="G15" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>3.139</v>
@@ -603,7 +651,7 @@
         <v>101.6869</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>41.0082</v>
@@ -614,10 +662,13 @@
       <c r="G16" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>51.5074</v>
@@ -626,7 +677,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>3.139</v>
@@ -637,10 +688,13 @@
       <c r="G17" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>51.5074</v>
@@ -649,7 +703,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-0.9471</v>
@@ -660,10 +714,13 @@
       <c r="G18" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>51.5074</v>
@@ -672,7 +729,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>-36.8509</v>
@@ -683,19 +740,22 @@
       <c r="G19" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>51.5074</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-0.1278</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>51.5074</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>-0.1278</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>40.7128</v>
@@ -706,10 +766,13 @@
       <c r="G20" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>51.5074</v>
@@ -718,7 +781,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>54.6896</v>
@@ -729,10 +792,13 @@
       <c r="G21" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>51.5074</v>
@@ -741,7 +807,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>38.7072</v>
@@ -752,10 +818,13 @@
       <c r="G22" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>51.5074</v>
@@ -764,7 +833,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>25.033</v>
@@ -775,10 +844,13 @@
       <c r="G23" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>51.5074</v>
@@ -787,7 +859,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>-31.9523</v>
@@ -798,10 +870,13 @@
       <c r="G24" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>51.5074</v>
@@ -810,7 +885,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>1.345</v>
@@ -821,10 +896,13 @@
       <c r="G25" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>51.5074</v>
@@ -833,7 +911,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>-33.4489</v>
@@ -844,10 +922,13 @@
       <c r="G26" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>51.5074</v>
@@ -856,7 +937,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>-22.9068</v>
@@ -867,10 +948,13 @@
       <c r="G27" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>51.5074</v>
@@ -879,7 +963,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>51.0447</v>
@@ -890,10 +974,13 @@
       <c r="G28" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>51.5074</v>
@@ -902,7 +989,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>64.1466</v>
@@ -913,10 +1000,13 @@
       <c r="G29" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>51.5074</v>
@@ -925,7 +1015,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>30.5728</v>
@@ -936,10 +1026,13 @@
       <c r="G30" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>51.5074</v>
@@ -948,7 +1041,7 @@
         <v>-0.1278</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>25.2048</v>
@@ -959,10 +1052,13 @@
       <c r="G31" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>56.0153</v>
@@ -971,7 +1067,7 @@
         <v>92.8932</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>51.5074</v>
@@ -982,10 +1078,13 @@
       <c r="G32" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>56.0153</v>
@@ -994,7 +1093,7 @@
         <v>92.8932</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>40.7128</v>
@@ -1005,10 +1104,13 @@
       <c r="G33" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>56.0153</v>
@@ -1017,7 +1119,7 @@
         <v>92.8932</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>25.033</v>
@@ -1028,10 +1130,13 @@
       <c r="G34" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>56.0153</v>
@@ -1040,7 +1145,7 @@
         <v>92.8932</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>54.6896</v>
@@ -1051,10 +1156,13 @@
       <c r="G35" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>56.0153</v>
@@ -1063,7 +1171,7 @@
         <v>92.8932</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>13.7563</v>
@@ -1074,10 +1182,13 @@
       <c r="G36" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>56.0153</v>
@@ -1086,7 +1197,7 @@
         <v>92.8932</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>69.3558</v>
@@ -1097,10 +1208,13 @@
       <c r="G37" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>56.0153</v>
@@ -1109,7 +1223,7 @@
         <v>92.8932</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>30.0444</v>
@@ -1120,10 +1234,13 @@
       <c r="G38" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>56.0153</v>
@@ -1132,7 +1249,7 @@
         <v>92.8932</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>43.1332</v>
@@ -1143,10 +1260,13 @@
       <c r="G39" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>56.0153</v>
@@ -1155,7 +1275,7 @@
         <v>92.8932</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>42.8746</v>
@@ -1166,10 +1286,13 @@
       <c r="G40" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>56.0153</v>
@@ -1178,7 +1301,7 @@
         <v>92.8932</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>64.1466</v>
@@ -1189,10 +1312,13 @@
       <c r="G41" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="H41" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>56.0153</v>
@@ -1201,7 +1327,7 @@
         <v>92.8932</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>41.0082</v>
@@ -1212,10 +1338,13 @@
       <c r="G42" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="H42" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>56.0153</v>
@@ -1224,7 +1353,7 @@
         <v>92.8932</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>59.9138</v>
@@ -1235,10 +1364,13 @@
       <c r="G43" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="H43" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>56.0153</v>
@@ -1247,7 +1379,7 @@
         <v>92.8932</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>37.9792</v>
@@ -1257,6 +1389,9 @@
       </c>
       <c r="G44" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
